--- a/Vulnerabilidades.xlsx
+++ b/Vulnerabilidades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hacker\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3FE6E4-62F4-4AA2-8A8F-F06D162D3B11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169D3E04-FF99-456F-8F6F-CF7D6EF0752C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E6B2840F-2E23-4709-9B55-4E2F73B05E53}"/>
   </bookViews>
@@ -90,7 +90,7 @@
     <t>O aplicativo usa banco de dados SQLite e executa consulta SQL bruta. A entrada de usuário não confiável em consultas SQL brutas pode causar injeção de SQL. Além disso, as informações confidenciais devem ser criptografadas e gravadas no banco de dados.</t>
   </si>
   <si>
-    <t>Vulnerabilidas</t>
+    <t>Vulnerabilidades</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
